--- a/AI model/6.FindingtheOptimalModel/4.최적모델 구하기.xlsx
+++ b/AI model/6.FindingtheOptimalModel/4.최적모델 구하기.xlsx
@@ -573,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W399"/>
+  <dimension ref="A1:P519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
@@ -588,7 +588,7 @@
     <col min="17" max="23" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,29 +630,8 @@
       <c r="O1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -696,29 +675,8 @@
       <c r="O2" s="4">
         <v>0.41649999999999998</v>
       </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0.88190000000000002</v>
-      </c>
-      <c r="S2" s="3">
-        <v>1.2699</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0.85860000000000003</v>
-      </c>
-      <c r="U2" s="5">
-        <v>0.69666700000000004</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0.62333300000000003</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -762,29 +720,8 @@
       <c r="O3" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="Q3" s="1">
-        <v>2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0.61009999999999998</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0.69450000000000001</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="U3" s="5">
-        <v>0.80666700000000002</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0.77333300000000005</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0.843333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -828,29 +765,8 @@
       <c r="O4" s="4">
         <v>0.38979999999999998</v>
       </c>
-      <c r="Q4" s="1">
-        <v>3</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0.44140000000000001</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0.51160000000000005</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0.4521</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0.843333</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0.82666700000000004</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0.843333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -894,29 +810,8 @@
       <c r="O5" s="4">
         <v>0.38450000000000001</v>
       </c>
-      <c r="Q5" s="1">
-        <v>4</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0.46929999999999999</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0.42820000000000003</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0.43530000000000002</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -960,29 +855,8 @@
       <c r="O6" s="4">
         <v>0.38679999999999998</v>
       </c>
-      <c r="Q6" s="1">
-        <v>5</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0.37840000000000001</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0.34910000000000002</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0.90333300000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1026,29 +900,8 @@
       <c r="O7" s="4">
         <v>0.3931</v>
       </c>
-      <c r="Q7" s="1">
-        <v>6</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0.34310000000000002</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0.36109999999999998</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0.3679</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0.90333300000000005</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0.87666699999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1092,29 +945,8 @@
       <c r="O8" s="4">
         <v>0.31709999999999999</v>
       </c>
-      <c r="Q8" s="1">
-        <v>7</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0.36320000000000002</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0.4118</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0.86333300000000002</v>
-      </c>
-      <c r="V8" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1158,29 +990,8 @@
       <c r="O9" s="4">
         <v>0.371</v>
       </c>
-      <c r="Q9" s="1">
-        <v>8</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0.37690000000000001</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0.34329999999999999</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="U9" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="W9" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1222,29 +1033,8 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="O10" s="17"/>
-      <c r="Q10" s="1">
-        <v>9</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0.3599</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0.34410000000000002</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0.36770000000000003</v>
-      </c>
-      <c r="U10" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="V10" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="W10" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1286,29 +1076,8 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="O11" s="17"/>
-      <c r="Q11" s="1">
-        <v>10</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0.38979999999999998</v>
-      </c>
-      <c r="U11" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="V11" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="W11" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1351,7 +1120,7 @@
       </c>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1393,29 +1162,8 @@
         <v>0.29859999999999998</v>
       </c>
       <c r="O13" s="17"/>
-      <c r="Q13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B14" s="7">
         <v>0.90666666659999995</v>
       </c>
@@ -1441,29 +1189,8 @@
         <v>0.34260000000000002</v>
       </c>
       <c r="O14" s="17"/>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0.83779999999999999</v>
-      </c>
-      <c r="S14" s="3">
-        <v>1.2896000000000001</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0.9234</v>
-      </c>
-      <c r="U14" s="5">
-        <v>0.73666699999999996</v>
-      </c>
-      <c r="V14" s="5">
-        <v>0.62333300000000003</v>
-      </c>
-      <c r="W14" s="5">
-        <v>0.71333299999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1505,29 +1232,8 @@
         <v>0.30249999999999999</v>
       </c>
       <c r="O15" s="17"/>
-      <c r="Q15" s="1">
-        <v>2</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0.61780000000000002</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0.68269999999999997</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0.51949999999999996</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="V15" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="W15" s="5">
-        <v>0.82333299999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1569,29 +1275,8 @@
         <v>0.29520000000000002</v>
       </c>
       <c r="O16" s="17"/>
-      <c r="Q16" s="1">
-        <v>3</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0.49709999999999999</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="V16" s="5">
-        <v>0.85333300000000001</v>
-      </c>
-      <c r="W16" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1633,29 +1318,8 @@
         <v>0.32369999999999999</v>
       </c>
       <c r="O17" s="17"/>
-      <c r="Q17" s="1">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0.41139999999999999</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0.3841</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="V17" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="W17" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1697,29 +1361,8 @@
         <v>0.31950000000000001</v>
       </c>
       <c r="O18" s="17"/>
-      <c r="Q18" s="1">
-        <v>5</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0.35570000000000002</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0.36180000000000001</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0.38290000000000002</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="W18" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1761,29 +1404,8 @@
         <v>0.33939999999999998</v>
       </c>
       <c r="O19" s="17"/>
-      <c r="Q19" s="1">
-        <v>6</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0.4052</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0.3614</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0.37990000000000002</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1825,29 +1447,8 @@
         <v>0.32290000000000002</v>
       </c>
       <c r="O20" s="17"/>
-      <c r="Q20" s="1">
-        <v>7</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0.3604</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0.38080000000000003</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="V20" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1889,29 +1490,8 @@
         <v>0.33090000000000003</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="Q21" s="1">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0.41349999999999998</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0.35489999999999999</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0.40060000000000001</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="V21" s="5">
-        <v>0.87666699999999997</v>
-      </c>
-      <c r="W21" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1953,29 +1533,8 @@
         <v>0.34910000000000002</v>
       </c>
       <c r="O22" s="17"/>
-      <c r="Q22" s="1">
-        <v>9</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0.36480000000000001</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="V22" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0.906667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -2017,29 +1576,8 @@
         <v>0.3538</v>
       </c>
       <c r="O23" s="17"/>
-      <c r="Q23" s="1">
-        <v>10</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0.36109999999999998</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0.3569</v>
-      </c>
-      <c r="T23" s="4">
-        <v>0.3538</v>
-      </c>
-      <c r="U23" s="5">
-        <v>0.906667</v>
-      </c>
-      <c r="V23" s="5">
-        <v>0.906667</v>
-      </c>
-      <c r="W23" s="6">
-        <v>0.89666699999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -2082,7 +1620,7 @@
       </c>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -2120,29 +1658,8 @@
         <v>0.32350000000000001</v>
       </c>
       <c r="O25" s="17"/>
-      <c r="Q25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>11</v>
       </c>
@@ -2176,29 +1693,8 @@
         <v>0.3034</v>
       </c>
       <c r="O26" s="17"/>
-      <c r="Q26" s="1">
-        <v>1</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1.2884</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="U26" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="V26" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="W26" s="5">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>12</v>
       </c>
@@ -2232,29 +1728,8 @@
         <v>0.35310000000000002</v>
       </c>
       <c r="O27" s="17"/>
-      <c r="Q27" s="1">
-        <v>2</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0.49380000000000002</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0.71840000000000004</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0.51549999999999996</v>
-      </c>
-      <c r="U27" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="V27" s="5">
-        <v>0.776667</v>
-      </c>
-      <c r="W27" s="5">
-        <v>0.83333299999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>13</v>
       </c>
@@ -2284,29 +1759,8 @@
         <v>0.31080000000000002</v>
       </c>
       <c r="O28" s="17"/>
-      <c r="Q28" s="1">
-        <v>3</v>
-      </c>
-      <c r="R28" s="3">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="T28" s="3">
-        <v>0.3982</v>
-      </c>
-      <c r="U28" s="5">
-        <v>0.86333300000000002</v>
-      </c>
-      <c r="V28" s="5">
-        <v>0.84666699999999995</v>
-      </c>
-      <c r="W28" s="5">
-        <v>0.86333300000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -2336,29 +1790,8 @@
         <v>0.35310000000000002</v>
       </c>
       <c r="O29" s="17"/>
-      <c r="Q29" s="1">
-        <v>4</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0.32629999999999998</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0.42549999999999999</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0.41070000000000001</v>
-      </c>
-      <c r="U29" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="V29" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="W29" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>15</v>
       </c>
@@ -2388,29 +1821,8 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="O30" s="17"/>
-      <c r="Q30" s="1">
-        <v>5</v>
-      </c>
-      <c r="R30" s="3">
-        <v>0.33479999999999999</v>
-      </c>
-      <c r="S30" s="3">
-        <v>0.37830000000000003</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0.39750000000000002</v>
-      </c>
-      <c r="U30" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="V30" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="W30" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>16</v>
       </c>
@@ -2440,29 +1852,8 @@
         <v>0.31140000000000001</v>
       </c>
       <c r="O31" s="17"/>
-      <c r="Q31" s="1">
-        <v>6</v>
-      </c>
-      <c r="R31" s="3">
-        <v>0.36130000000000001</v>
-      </c>
-      <c r="S31" s="3">
-        <v>0.36990000000000001</v>
-      </c>
-      <c r="T31" s="3">
-        <v>0.35649999999999998</v>
-      </c>
-      <c r="U31" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="V31" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="W31" s="5">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>17</v>
       </c>
@@ -2496,29 +1887,8 @@
         <f>AVERAGE(O2:O31)</f>
         <v>0.37535000000000002</v>
       </c>
-      <c r="Q32" s="1">
-        <v>7</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0.35830000000000001</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0.34460000000000002</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="U32" s="5">
-        <v>0.91333299999999995</v>
-      </c>
-      <c r="V32" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="W32" s="5">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>18</v>
       </c>
@@ -2540,29 +1910,8 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
-      <c r="Q33" s="1">
-        <v>8</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0.34460000000000002</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0.34839999999999999</v>
-      </c>
-      <c r="T33" s="4">
-        <v>0.32529999999999998</v>
-      </c>
-      <c r="U33" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="V33" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="W33" s="6">
-        <v>0.906667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B34" s="7">
         <v>0.90666666666666595</v>
       </c>
@@ -2580,29 +1929,8 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
-      <c r="Q34" s="1">
-        <v>9</v>
-      </c>
-      <c r="R34" s="3">
-        <v>0.34379999999999999</v>
-      </c>
-      <c r="S34" s="3">
-        <v>0.33460000000000001</v>
-      </c>
-      <c r="T34" s="3">
-        <v>0.34289999999999998</v>
-      </c>
-      <c r="U34" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="V34" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="W34" s="5">
-        <v>0.906667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2634,34 +1962,13 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="9">
-        <f>AVERAGE(L32:N32)</f>
-        <v>0.32637888888888894</v>
+        <f>AVERAGE(L32:O32)</f>
+        <v>0.33862166666666671</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
-      <c r="Q35" s="1">
-        <v>10</v>
-      </c>
-      <c r="R35" s="4">
-        <v>0.33960000000000001</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0.32140000000000002</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0.40550000000000003</v>
-      </c>
-      <c r="U35" s="6">
-        <v>0.91333299999999995</v>
-      </c>
-      <c r="V35" s="6">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="W35" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -2696,7 +2003,7 @@
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -2730,29 +2037,8 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
-      <c r="Q37" s="1">
-        <v>24</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -2786,29 +2072,8 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
-      <c r="Q38" s="1">
-        <v>1</v>
-      </c>
-      <c r="R38" s="3">
-        <v>0.83860000000000001</v>
-      </c>
-      <c r="S38" s="3">
-        <v>1.2663</v>
-      </c>
-      <c r="T38" s="3">
-        <v>0.85470000000000002</v>
-      </c>
-      <c r="U38" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="V38" s="5">
-        <v>0.62666699999999997</v>
-      </c>
-      <c r="W38" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -2842,29 +2107,8 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
-      <c r="Q39" s="1">
-        <v>2</v>
-      </c>
-      <c r="R39" s="3">
-        <v>0.49580000000000002</v>
-      </c>
-      <c r="S39" s="3">
-        <v>0.68989999999999996</v>
-      </c>
-      <c r="T39" s="3">
-        <v>0.51480000000000004</v>
-      </c>
-      <c r="U39" s="5">
-        <v>0.85666699999999996</v>
-      </c>
-      <c r="V39" s="5">
-        <v>0.79666700000000001</v>
-      </c>
-      <c r="W39" s="5">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -2898,29 +2142,8 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
-      <c r="Q40" s="1">
-        <v>3</v>
-      </c>
-      <c r="R40" s="3">
-        <v>0.44629999999999997</v>
-      </c>
-      <c r="S40" s="3">
-        <v>0.52559999999999996</v>
-      </c>
-      <c r="T40" s="3">
-        <v>0.45519999999999999</v>
-      </c>
-      <c r="U40" s="5">
-        <v>0.87666699999999997</v>
-      </c>
-      <c r="V40" s="5">
-        <v>0.82666700000000004</v>
-      </c>
-      <c r="W40" s="5">
-        <v>0.85666699999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -2949,29 +2172,8 @@
         <v>0.87666699999999997</v>
       </c>
       <c r="J41" s="14"/>
-      <c r="Q41" s="1">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0.4284</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0.42470000000000002</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0.33860000000000001</v>
-      </c>
-      <c r="U41" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0.87333300000000003</v>
-      </c>
-      <c r="W41" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -3000,29 +2202,8 @@
         <v>0.91333299999999995</v>
       </c>
       <c r="J42" s="14"/>
-      <c r="Q42" s="1">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0.34789999999999999</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0.39660000000000001</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0.3448</v>
-      </c>
-      <c r="U42" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="V42" s="5">
-        <v>0.87333300000000003</v>
-      </c>
-      <c r="W42" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>8</v>
       </c>
@@ -3051,29 +2232,8 @@
         <v>0.9</v>
       </c>
       <c r="J43" s="14"/>
-      <c r="Q43" s="1">
-        <v>6</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0.43869999999999998</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0.35470000000000002</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0.34810000000000002</v>
-      </c>
-      <c r="U43" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="V43" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="W43" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>9</v>
       </c>
@@ -3102,29 +2262,8 @@
         <v>0.9</v>
       </c>
       <c r="J44" s="14"/>
-      <c r="Q44" s="1">
-        <v>7</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0.36969999999999997</v>
-      </c>
-      <c r="S44" s="4">
-        <v>0.32579999999999998</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0.33139999999999997</v>
-      </c>
-      <c r="U44" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="V44" s="6">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="W44" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>10</v>
       </c>
@@ -3145,29 +2284,8 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="12"/>
-      <c r="Q45" s="1">
-        <v>8</v>
-      </c>
-      <c r="R45" s="4">
-        <v>0.31929999999999997</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0.33160000000000001</v>
-      </c>
-      <c r="T45" s="4">
-        <v>0.32350000000000001</v>
-      </c>
-      <c r="U45" s="6">
-        <v>0.91666700000000001</v>
-      </c>
-      <c r="V45" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="W45" s="6">
-        <v>0.89333300000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>11</v>
       </c>
@@ -3184,29 +2302,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="12"/>
-      <c r="Q46" s="1">
-        <v>9</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0.374</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0.33689999999999998</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="U46" s="5">
-        <v>0.90333300000000005</v>
-      </c>
-      <c r="V46" s="5">
-        <v>0.906667</v>
-      </c>
-      <c r="W46" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>12</v>
       </c>
@@ -3223,29 +2320,8 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="12"/>
-      <c r="Q47" s="1">
-        <v>10</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0.33110000000000001</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="U47" s="5">
-        <v>0.91333299999999995</v>
-      </c>
-      <c r="V47" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="W47" s="5">
-        <v>0.906667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>13</v>
       </c>
@@ -3263,7 +2339,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>14</v>
       </c>
@@ -3280,29 +2356,8 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="12"/>
-      <c r="Q49" s="1">
-        <v>25</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>15</v>
       </c>
@@ -3319,29 +2374,8 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="12"/>
-      <c r="Q50" s="1">
-        <v>1</v>
-      </c>
-      <c r="R50" s="3">
-        <v>0.7641</v>
-      </c>
-      <c r="S50" s="3">
-        <v>1.2895000000000001</v>
-      </c>
-      <c r="T50" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="U50" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="V50" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="W50" s="5">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B51" s="7">
         <v>0.89666665999999995</v>
       </c>
@@ -3354,29 +2388,8 @@
       <c r="E51" s="7">
         <v>0.9</v>
       </c>
-      <c r="Q51" s="1">
-        <v>2</v>
-      </c>
-      <c r="R51" s="3">
-        <v>0.67949999999999999</v>
-      </c>
-      <c r="S51" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="T51" s="3">
-        <v>0.49030000000000001</v>
-      </c>
-      <c r="U51" s="5">
-        <v>0.75333300000000003</v>
-      </c>
-      <c r="V51" s="5">
-        <v>0.79666700000000001</v>
-      </c>
-      <c r="W51" s="5">
-        <v>0.83666700000000005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -3405,29 +2418,8 @@
         <v>3</v>
       </c>
       <c r="J52" s="12"/>
-      <c r="Q52" s="1">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0.44330000000000003</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0.46929999999999999</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0.40689999999999998</v>
-      </c>
-      <c r="U52" s="5">
-        <v>0.84666699999999995</v>
-      </c>
-      <c r="V52" s="5">
-        <v>0.85666699999999996</v>
-      </c>
-      <c r="W52" s="5">
-        <v>0.85666699999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -3456,29 +2448,8 @@
         <v>0.71666700000000005</v>
       </c>
       <c r="J53" s="14"/>
-      <c r="Q53" s="1">
-        <v>4</v>
-      </c>
-      <c r="R53" s="3">
-        <v>0.44069999999999998</v>
-      </c>
-      <c r="S53" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="T53" s="3">
-        <v>0.33989999999999998</v>
-      </c>
-      <c r="U53" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="V53" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="W53" s="5">
-        <v>0.87666699999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -3507,29 +2478,8 @@
         <v>0.80333299999999996</v>
       </c>
       <c r="J54" s="14"/>
-      <c r="Q54" s="1">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0.35959999999999998</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="U54" s="5">
-        <v>0.84666699999999995</v>
-      </c>
-      <c r="V54" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="W54" s="5">
-        <v>0.87666699999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -3558,29 +2508,8 @@
         <v>0.87666699999999997</v>
       </c>
       <c r="J55" s="14"/>
-      <c r="Q55" s="1">
-        <v>6</v>
-      </c>
-      <c r="R55" s="3">
-        <v>0.3614</v>
-      </c>
-      <c r="S55" s="3">
-        <v>0.36149999999999999</v>
-      </c>
-      <c r="T55" s="4">
-        <v>0.3034</v>
-      </c>
-      <c r="U55" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="V55" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W55" s="6">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>4</v>
       </c>
@@ -3609,29 +2538,8 @@
         <v>0.87</v>
       </c>
       <c r="J56" s="14"/>
-      <c r="Q56" s="1">
-        <v>7</v>
-      </c>
-      <c r="R56" s="3">
-        <v>0.34989999999999999</v>
-      </c>
-      <c r="S56" s="3">
-        <v>0.3397</v>
-      </c>
-      <c r="T56" s="3">
-        <v>0.2984</v>
-      </c>
-      <c r="U56" s="5">
-        <v>0.91666700000000001</v>
-      </c>
-      <c r="V56" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="W56" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>5</v>
       </c>
@@ -3660,29 +2568,8 @@
         <v>0.88666699999999998</v>
       </c>
       <c r="J57" s="14"/>
-      <c r="Q57" s="1">
-        <v>8</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0.33929999999999999</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0.32629999999999998</v>
-      </c>
-      <c r="U57" s="5">
-        <v>0.906667</v>
-      </c>
-      <c r="V57" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="W57" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>6</v>
       </c>
@@ -3711,29 +2598,8 @@
         <v>0.89333300000000004</v>
       </c>
       <c r="J58" s="14"/>
-      <c r="Q58" s="1">
-        <v>9</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0.3402</v>
-      </c>
-      <c r="S58" s="4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0.31879999999999997</v>
-      </c>
-      <c r="U58" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="V58" s="6">
-        <v>0.91333299999999995</v>
-      </c>
-      <c r="W58" s="5">
-        <v>0.90333300000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>7</v>
       </c>
@@ -3762,29 +2628,8 @@
         <v>0.88666699999999998</v>
       </c>
       <c r="J59" s="14"/>
-      <c r="Q59" s="1">
-        <v>10</v>
-      </c>
-      <c r="R59" s="4">
-        <v>0.32090000000000002</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0.34770000000000001</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0.3604</v>
-      </c>
-      <c r="U59" s="6">
-        <v>0.91666700000000001</v>
-      </c>
-      <c r="V59" s="5">
-        <v>0.906667</v>
-      </c>
-      <c r="W59" s="5">
-        <v>0.90333300000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>8</v>
       </c>
@@ -3814,7 +2659,7 @@
       </c>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>9</v>
       </c>
@@ -3843,29 +2688,8 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="J61" s="14"/>
-      <c r="Q61" s="1">
-        <v>26</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>10</v>
       </c>
@@ -3886,29 +2710,8 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="12"/>
-      <c r="Q62" s="1">
-        <v>1</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0.8024</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0.88680000000000003</v>
-      </c>
-      <c r="U62" s="5">
-        <v>0.71666700000000005</v>
-      </c>
-      <c r="V62" s="5">
-        <v>0.68333299999999997</v>
-      </c>
-      <c r="W62" s="5">
-        <v>0.723333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>11</v>
       </c>
@@ -3925,29 +2728,8 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="12"/>
-      <c r="Q63" s="1">
-        <v>2</v>
-      </c>
-      <c r="R63" s="3">
-        <v>0.53239999999999998</v>
-      </c>
-      <c r="S63" s="3">
-        <v>0.66210000000000002</v>
-      </c>
-      <c r="T63" s="3">
-        <v>0.52959999999999996</v>
-      </c>
-      <c r="U63" s="5">
-        <v>0.81666700000000003</v>
-      </c>
-      <c r="V63" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="W63" s="5">
-        <v>0.843333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>12</v>
       </c>
@@ -3964,29 +2746,8 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="12"/>
-      <c r="Q64" s="1">
-        <v>3</v>
-      </c>
-      <c r="R64" s="3">
-        <v>0.47970000000000002</v>
-      </c>
-      <c r="S64" s="3">
-        <v>0.50649999999999995</v>
-      </c>
-      <c r="T64" s="3">
-        <v>0.40239999999999998</v>
-      </c>
-      <c r="U64" s="5">
-        <v>0.84666699999999995</v>
-      </c>
-      <c r="V64" s="5">
-        <v>0.83333299999999999</v>
-      </c>
-      <c r="W64" s="5">
-        <v>0.85666699999999996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>13</v>
       </c>
@@ -4003,29 +2764,8 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="12"/>
-      <c r="Q65" s="1">
-        <v>4</v>
-      </c>
-      <c r="R65" s="3">
-        <v>0.43409999999999999</v>
-      </c>
-      <c r="S65" s="3">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="T65" s="3">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="U65" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="V65" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="W65" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>14</v>
       </c>
@@ -4042,29 +2782,8 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="12"/>
-      <c r="Q66" s="1">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
-        <v>0.36620000000000003</v>
-      </c>
-      <c r="S66" s="3">
-        <v>0.36049999999999999</v>
-      </c>
-      <c r="T66" s="3">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="U66" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="V66" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="W66" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>15</v>
       </c>
@@ -4081,29 +2800,8 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="12"/>
-      <c r="Q67" s="1">
-        <v>6</v>
-      </c>
-      <c r="R67" s="3">
-        <v>0.39410000000000001</v>
-      </c>
-      <c r="S67" s="3">
-        <v>0.3569</v>
-      </c>
-      <c r="T67" s="3">
-        <v>0.39739999999999998</v>
-      </c>
-      <c r="U67" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="V67" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="W67" s="5">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B68" s="7">
         <v>0.89666666660000005</v>
       </c>
@@ -4116,29 +2814,8 @@
       <c r="E68" s="7">
         <v>0.86666666599999997</v>
       </c>
-      <c r="Q68" s="1">
-        <v>7</v>
-      </c>
-      <c r="R68" s="4">
-        <v>0.33939999999999998</v>
-      </c>
-      <c r="S68" s="3">
-        <v>0.34710000000000002</v>
-      </c>
-      <c r="T68" s="3">
-        <v>0.32750000000000001</v>
-      </c>
-      <c r="U68" s="6">
-        <v>0.91666700000000001</v>
-      </c>
-      <c r="V68" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="W68" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -4167,29 +2844,8 @@
         <v>3</v>
       </c>
       <c r="J69" s="12"/>
-      <c r="Q69" s="1">
-        <v>8</v>
-      </c>
-      <c r="R69" s="3">
-        <v>0.35549999999999998</v>
-      </c>
-      <c r="S69" s="4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="T69" s="4">
-        <v>0.30669999999999997</v>
-      </c>
-      <c r="U69" s="5">
-        <v>0.906667</v>
-      </c>
-      <c r="V69" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="W69" s="6">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -4218,29 +2874,8 @@
         <v>0.73</v>
       </c>
       <c r="J70" s="14"/>
-      <c r="Q70" s="1">
-        <v>9</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0.36449999999999999</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0.32340000000000002</v>
-      </c>
-      <c r="T70" s="3">
-        <v>0.36680000000000001</v>
-      </c>
-      <c r="U70" s="5">
-        <v>0.906667</v>
-      </c>
-      <c r="V70" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="W70" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -4269,29 +2904,8 @@
         <v>0.81666700000000003</v>
       </c>
       <c r="J71" s="14"/>
-      <c r="Q71" s="1">
-        <v>10</v>
-      </c>
-      <c r="R71" s="3">
-        <v>0.3397</v>
-      </c>
-      <c r="S71" s="3">
-        <v>0.32929999999999998</v>
-      </c>
-      <c r="T71" s="3">
-        <v>0.34110000000000001</v>
-      </c>
-      <c r="U71" s="5">
-        <v>0.906667</v>
-      </c>
-      <c r="V71" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W71" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -4321,7 +2935,7 @@
       </c>
       <c r="J72" s="14"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -4350,29 +2964,8 @@
         <v>0.90333300000000005</v>
       </c>
       <c r="J73" s="14"/>
-      <c r="Q73" s="1">
-        <v>27</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>5</v>
       </c>
@@ -4401,29 +2994,8 @@
         <v>0.87</v>
       </c>
       <c r="J74" s="14"/>
-      <c r="Q74" s="1">
-        <v>1</v>
-      </c>
-      <c r="R74" s="3">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="S74" s="3">
-        <v>1.2741</v>
-      </c>
-      <c r="T74" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="U74" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="V74" s="5">
-        <v>0.65333300000000005</v>
-      </c>
-      <c r="W74" s="5">
-        <v>0.73666699999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>6</v>
       </c>
@@ -4452,29 +3024,8 @@
         <v>0.89333300000000004</v>
       </c>
       <c r="J75" s="14"/>
-      <c r="Q75" s="1">
-        <v>2</v>
-      </c>
-      <c r="R75" s="3">
-        <v>0.54690000000000005</v>
-      </c>
-      <c r="S75" s="3">
-        <v>0.69710000000000005</v>
-      </c>
-      <c r="T75" s="3">
-        <v>0.51939999999999997</v>
-      </c>
-      <c r="U75" s="5">
-        <v>0.81333299999999997</v>
-      </c>
-      <c r="V75" s="5">
-        <v>0.79666700000000001</v>
-      </c>
-      <c r="W75" s="5">
-        <v>0.82333299999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>7</v>
       </c>
@@ -4503,29 +3054,8 @@
         <v>0.87666699999999997</v>
       </c>
       <c r="J76" s="14"/>
-      <c r="Q76" s="1">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0.4007</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="T76" s="3">
-        <v>0.39460000000000001</v>
-      </c>
-      <c r="U76" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="V76" s="5">
-        <v>0.80333299999999996</v>
-      </c>
-      <c r="W76" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>8</v>
       </c>
@@ -4554,29 +3084,8 @@
         <v>0.90333300000000005</v>
       </c>
       <c r="J77" s="14"/>
-      <c r="Q77" s="1">
-        <v>4</v>
-      </c>
-      <c r="R77" s="3">
-        <v>0.4108</v>
-      </c>
-      <c r="S77" s="3">
-        <v>0.42280000000000001</v>
-      </c>
-      <c r="T77" s="3">
-        <v>0.38250000000000001</v>
-      </c>
-      <c r="U77" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="V77" s="5">
-        <v>0.86333300000000002</v>
-      </c>
-      <c r="W77" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>9</v>
       </c>
@@ -4605,29 +3114,8 @@
         <v>0.906667</v>
       </c>
       <c r="J78" s="14"/>
-      <c r="Q78" s="1">
-        <v>5</v>
-      </c>
-      <c r="R78" s="3">
-        <v>0.36159999999999998</v>
-      </c>
-      <c r="S78" s="3">
-        <v>0.36930000000000002</v>
-      </c>
-      <c r="T78" s="3">
-        <v>0.37469999999999998</v>
-      </c>
-      <c r="U78" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="V78" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="W78" s="5">
-        <v>0.86333300000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>10</v>
       </c>
@@ -4648,29 +3136,8 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="12"/>
-      <c r="Q79" s="1">
-        <v>6</v>
-      </c>
-      <c r="R79" s="3">
-        <v>0.3901</v>
-      </c>
-      <c r="S79" s="3">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="T79" s="3">
-        <v>0.33189999999999997</v>
-      </c>
-      <c r="U79" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="V79" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="W79" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>11</v>
       </c>
@@ -4687,29 +3154,8 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="12"/>
-      <c r="Q80" s="1">
-        <v>7</v>
-      </c>
-      <c r="R80" s="3">
-        <v>0.35239999999999999</v>
-      </c>
-      <c r="S80" s="3">
-        <v>0.3619</v>
-      </c>
-      <c r="T80" s="3">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="U80" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="V80" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="W80" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>12</v>
       </c>
@@ -4726,29 +3172,8 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="12"/>
-      <c r="Q81" s="1">
-        <v>8</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0.29270000000000002</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0.37130000000000002</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0.33379999999999999</v>
-      </c>
-      <c r="U81" s="5">
-        <v>0.90333300000000005</v>
-      </c>
-      <c r="V81" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="W81" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>13</v>
       </c>
@@ -4765,29 +3190,8 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="12"/>
-      <c r="Q82" s="1">
-        <v>9</v>
-      </c>
-      <c r="R82" s="3">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="S82" s="4">
-        <v>0.34370000000000001</v>
-      </c>
-      <c r="T82" s="3">
-        <v>0.33289999999999997</v>
-      </c>
-      <c r="U82" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="V82" s="6">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="W82" s="5">
-        <v>0.90333300000000005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>14</v>
       </c>
@@ -4804,29 +3208,8 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="12"/>
-      <c r="Q83" s="1">
-        <v>10</v>
-      </c>
-      <c r="R83" s="4">
-        <v>0.27229999999999999</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0.3538</v>
-      </c>
-      <c r="T83" s="4">
-        <v>0.31080000000000002</v>
-      </c>
-      <c r="U83" s="6">
-        <v>0.91666700000000001</v>
-      </c>
-      <c r="V83" s="5">
-        <v>0.906667</v>
-      </c>
-      <c r="W83" s="6">
-        <v>0.92333299999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>15</v>
       </c>
@@ -4844,7 +3227,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>16</v>
       </c>
@@ -4861,29 +3244,8 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="12"/>
-      <c r="Q85" s="1">
-        <v>28</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W85" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>17</v>
       </c>
@@ -4900,29 +3262,8 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="12"/>
-      <c r="Q86" s="1">
-        <v>1</v>
-      </c>
-      <c r="R86" s="19">
-        <v>0.80159999999999998</v>
-      </c>
-      <c r="S86" s="3">
-        <v>1.2383999999999999</v>
-      </c>
-      <c r="T86" s="3">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="U86" s="20">
-        <v>0.71333299999999999</v>
-      </c>
-      <c r="V86" s="5">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="W86" s="5">
-        <v>0.72666699999999995</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>18</v>
       </c>
@@ -4939,29 +3280,8 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="12"/>
-      <c r="Q87" s="1">
-        <v>2</v>
-      </c>
-      <c r="R87" s="19">
-        <v>0.56710000000000005</v>
-      </c>
-      <c r="S87" s="3">
-        <v>0.72130000000000005</v>
-      </c>
-      <c r="T87" s="3">
-        <v>0.50870000000000004</v>
-      </c>
-      <c r="U87" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="V87" s="5">
-        <v>0.77333300000000005</v>
-      </c>
-      <c r="W87" s="5">
-        <v>0.82666700000000004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B88" s="7">
         <v>0.9</v>
       </c>
@@ -4974,29 +3294,8 @@
       <c r="E88" s="7">
         <v>0.90666666666600004</v>
       </c>
-      <c r="Q88" s="1">
-        <v>3</v>
-      </c>
-      <c r="R88" s="19">
-        <v>0.43190000000000001</v>
-      </c>
-      <c r="S88" s="3">
-        <v>0.51339999999999997</v>
-      </c>
-      <c r="T88" s="3">
-        <v>0.40039999999999998</v>
-      </c>
-      <c r="U88" s="20">
-        <v>0.86</v>
-      </c>
-      <c r="V88" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="W88" s="5">
-        <v>0.86333300000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -5025,29 +3324,8 @@
         <v>3</v>
       </c>
       <c r="J89" s="12"/>
-      <c r="Q89" s="1">
-        <v>4</v>
-      </c>
-      <c r="R89" s="19">
-        <v>0.3493</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0.36780000000000002</v>
-      </c>
-      <c r="U89" s="20">
-        <v>0.88</v>
-      </c>
-      <c r="V89" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="W89" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -5076,29 +3354,8 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="J90" s="14"/>
-      <c r="Q90" s="1">
-        <v>5</v>
-      </c>
-      <c r="R90" s="19">
-        <v>0.32740000000000002</v>
-      </c>
-      <c r="S90" s="3">
-        <v>0.39140000000000003</v>
-      </c>
-      <c r="T90" s="3">
-        <v>0.37430000000000002</v>
-      </c>
-      <c r="U90" s="20">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="V90" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-      <c r="W90" s="5">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -5127,29 +3384,8 @@
         <v>0.82</v>
       </c>
       <c r="J91" s="14"/>
-      <c r="Q91" s="1">
-        <v>6</v>
-      </c>
-      <c r="R91" s="19">
-        <v>0.34939999999999999</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0.3634</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0.38169999999999998</v>
-      </c>
-      <c r="U91" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="V91" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="W91" s="5">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -5178,29 +3414,8 @@
         <v>0.86333300000000002</v>
       </c>
       <c r="J92" s="14"/>
-      <c r="Q92" s="1">
-        <v>7</v>
-      </c>
-      <c r="R92" s="19">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="S92" s="3">
-        <v>0.35160000000000002</v>
-      </c>
-      <c r="T92" s="3">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="U92" s="20">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="V92" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="W92" s="5">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>4</v>
       </c>
@@ -5229,29 +3444,8 @@
         <v>0.86</v>
       </c>
       <c r="J93" s="14"/>
-      <c r="Q93" s="1">
-        <v>8</v>
-      </c>
-      <c r="R93" s="18">
-        <v>0.31140000000000001</v>
-      </c>
-      <c r="S93" s="3">
-        <v>0.3629</v>
-      </c>
-      <c r="T93" s="3">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="U93" s="21">
-        <v>0.906667</v>
-      </c>
-      <c r="V93" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="W93" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>5</v>
       </c>
@@ -5280,29 +3474,8 @@
         <v>0.88666699999999998</v>
       </c>
       <c r="J94" s="14"/>
-      <c r="Q94" s="1">
-        <v>9</v>
-      </c>
-      <c r="R94" s="19">
-        <v>0.3483</v>
-      </c>
-      <c r="S94" s="4">
-        <v>0.33839999999999998</v>
-      </c>
-      <c r="T94" s="4">
-        <v>0.35310000000000002</v>
-      </c>
-      <c r="U94" s="20">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="V94" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="W94" s="6">
-        <v>0.906667</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>6</v>
       </c>
@@ -5331,29 +3504,8 @@
         <v>0.87666699999999997</v>
       </c>
       <c r="J95" s="14"/>
-      <c r="Q95" s="1">
-        <v>10</v>
-      </c>
-      <c r="R95" s="19">
-        <v>0.31719999999999998</v>
-      </c>
-      <c r="S95" s="3">
-        <v>0.34539999999999998</v>
-      </c>
-      <c r="T95" s="3">
-        <v>0.37259999999999999</v>
-      </c>
-      <c r="U95" s="20">
-        <v>0.906667</v>
-      </c>
-      <c r="V95" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W95" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>7</v>
       </c>
@@ -5383,7 +3535,7 @@
       </c>
       <c r="J96" s="14"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>8</v>
       </c>
@@ -5412,29 +3564,8 @@
         <v>0.89333300000000004</v>
       </c>
       <c r="J97" s="14"/>
-      <c r="Q97" s="1">
-        <v>29</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U97" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V97" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W97" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>9</v>
       </c>
@@ -5463,29 +3594,8 @@
         <v>0.91</v>
       </c>
       <c r="J98" s="14"/>
-      <c r="Q98" s="1">
-        <v>1</v>
-      </c>
-      <c r="R98" s="3">
-        <v>0.80589999999999995</v>
-      </c>
-      <c r="S98" s="3">
-        <v>1.2703</v>
-      </c>
-      <c r="T98" s="3">
-        <v>0.83440000000000003</v>
-      </c>
-      <c r="U98" s="5">
-        <v>0.74333300000000002</v>
-      </c>
-      <c r="V98" s="5">
-        <v>0.62666699999999997</v>
-      </c>
-      <c r="W98" s="5">
-        <v>0.776667</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>10</v>
       </c>
@@ -5506,29 +3616,8 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="12"/>
-      <c r="Q99" s="1">
-        <v>2</v>
-      </c>
-      <c r="R99" s="3">
-        <v>0.53029999999999999</v>
-      </c>
-      <c r="S99" s="3">
-        <v>0.6845</v>
-      </c>
-      <c r="T99" s="3">
-        <v>0.47689999999999999</v>
-      </c>
-      <c r="U99" s="5">
-        <v>0.81333299999999997</v>
-      </c>
-      <c r="V99" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="W99" s="5">
-        <v>0.84666699999999995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>11</v>
       </c>
@@ -5545,29 +3634,8 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="12"/>
-      <c r="Q100" s="1">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0.49359999999999998</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="U100" s="5">
-        <v>0.843333</v>
-      </c>
-      <c r="V100" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="W100" s="5">
-        <v>0.86666699999999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>12</v>
       </c>
@@ -5584,29 +3652,8 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="12"/>
-      <c r="Q101" s="1">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0.39689999999999998</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0.3715</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0.37159999999999999</v>
-      </c>
-      <c r="U101" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="V101" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-      <c r="W101" s="5">
-        <v>0.87666699999999997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>13</v>
       </c>
@@ -5623,29 +3670,8 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="12"/>
-      <c r="Q102" s="1">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0.39079999999999998</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0.371</v>
-      </c>
-      <c r="U102" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="V102" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="W102" s="5">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>14</v>
       </c>
@@ -5662,29 +3688,8 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="12"/>
-      <c r="Q103" s="1">
-        <v>6</v>
-      </c>
-      <c r="R103" s="3">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="S103" s="3">
-        <v>0.3387</v>
-      </c>
-      <c r="T103" s="4">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="U103" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="V103" s="5">
-        <v>0.90333300000000005</v>
-      </c>
-      <c r="W103" s="6">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>15</v>
       </c>
@@ -5701,29 +3706,8 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="12"/>
-      <c r="Q104" s="1">
-        <v>7</v>
-      </c>
-      <c r="R104" s="3">
-        <v>0.36759999999999998</v>
-      </c>
-      <c r="S104" s="4">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="T104" s="3">
-        <v>0.38940000000000002</v>
-      </c>
-      <c r="U104" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="V104" s="6">
-        <v>0.906667</v>
-      </c>
-      <c r="W104" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>16</v>
       </c>
@@ -5740,29 +3724,8 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="12"/>
-      <c r="Q105" s="1">
-        <v>8</v>
-      </c>
-      <c r="R105" s="3">
-        <v>0.39150000000000001</v>
-      </c>
-      <c r="S105" s="3">
-        <v>0.3417</v>
-      </c>
-      <c r="T105" s="3">
-        <v>0.35210000000000002</v>
-      </c>
-      <c r="U105" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-      <c r="V105" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W105" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>17</v>
       </c>
@@ -5779,29 +3742,8 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="12"/>
-      <c r="Q106" s="1">
-        <v>9</v>
-      </c>
-      <c r="R106" s="4">
-        <v>0.38279999999999997</v>
-      </c>
-      <c r="S106" s="3">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="T106" s="3">
-        <v>0.40189999999999998</v>
-      </c>
-      <c r="U106" s="6">
-        <v>0.906667</v>
-      </c>
-      <c r="V106" s="5">
-        <v>0.89666699999999999</v>
-      </c>
-      <c r="W106" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>18</v>
       </c>
@@ -5818,29 +3760,8 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="12"/>
-      <c r="Q107" s="1">
-        <v>10</v>
-      </c>
-      <c r="R107" s="3">
-        <v>0.4007</v>
-      </c>
-      <c r="S107" s="3">
-        <v>0.34570000000000001</v>
-      </c>
-      <c r="T107" s="3">
-        <v>0.40510000000000002</v>
-      </c>
-      <c r="U107" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="V107" s="5">
-        <v>0.90333300000000005</v>
-      </c>
-      <c r="W107" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B108" s="7">
         <v>0.9</v>
       </c>
@@ -5854,7 +3775,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>10</v>
       </c>
@@ -5883,29 +3804,8 @@
         <v>3</v>
       </c>
       <c r="J109" s="12"/>
-      <c r="Q109" s="1">
-        <v>30</v>
-      </c>
-      <c r="R109" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S109" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U109" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V109" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W109" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>1</v>
       </c>
@@ -5934,29 +3834,8 @@
         <v>0.71333299999999999</v>
       </c>
       <c r="J110" s="14"/>
-      <c r="Q110" s="1">
-        <v>1</v>
-      </c>
-      <c r="R110" s="3">
-        <v>0.78110000000000002</v>
-      </c>
-      <c r="S110" s="3">
-        <v>1.2367999999999999</v>
-      </c>
-      <c r="T110" s="3">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="U110" s="5">
-        <v>0.74666699999999997</v>
-      </c>
-      <c r="V110" s="5">
-        <v>0.656667</v>
-      </c>
-      <c r="W110" s="5">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>2</v>
       </c>
@@ -5985,29 +3864,8 @@
         <v>0.83666700000000005</v>
       </c>
       <c r="J111" s="14"/>
-      <c r="Q111" s="1">
-        <v>2</v>
-      </c>
-      <c r="R111" s="3">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="S111" s="3">
-        <v>0.69640000000000002</v>
-      </c>
-      <c r="T111" s="3">
-        <v>0.52310000000000001</v>
-      </c>
-      <c r="U111" s="5">
-        <v>0.79333299999999995</v>
-      </c>
-      <c r="V111" s="5">
-        <v>0.78333299999999995</v>
-      </c>
-      <c r="W111" s="5">
-        <v>0.843333</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>3</v>
       </c>
@@ -6036,29 +3894,8 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="J112" s="14"/>
-      <c r="Q112" s="1">
-        <v>3</v>
-      </c>
-      <c r="R112" s="3">
-        <v>0.40329999999999999</v>
-      </c>
-      <c r="S112" s="3">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="T112" s="3">
-        <v>0.44419999999999998</v>
-      </c>
-      <c r="U112" s="5">
-        <v>0.87333300000000003</v>
-      </c>
-      <c r="V112" s="5">
-        <v>0.83666700000000005</v>
-      </c>
-      <c r="W112" s="5">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>4</v>
       </c>
@@ -6087,29 +3924,8 @@
         <v>0.87666699999999997</v>
       </c>
       <c r="J113" s="14"/>
-      <c r="Q113" s="1">
-        <v>4</v>
-      </c>
-      <c r="R113" s="3">
-        <v>0.47539999999999999</v>
-      </c>
-      <c r="S113" s="3">
-        <v>0.42670000000000002</v>
-      </c>
-      <c r="T113" s="3">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="U113" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="V113" s="5">
-        <v>0.86333300000000002</v>
-      </c>
-      <c r="W113" s="5">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>5</v>
       </c>
@@ -6138,29 +3954,8 @@
         <v>0.88333300000000003</v>
       </c>
       <c r="J114" s="14"/>
-      <c r="Q114" s="1">
-        <v>5</v>
-      </c>
-      <c r="R114" s="3">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="S114" s="3">
-        <v>0.37940000000000002</v>
-      </c>
-      <c r="T114" s="3">
-        <v>0.35489999999999999</v>
-      </c>
-      <c r="U114" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="V114" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="W114" s="5">
-        <v>0.87666699999999997</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>6</v>
       </c>
@@ -6189,29 +3984,8 @@
         <v>0.89333300000000004</v>
       </c>
       <c r="J115" s="14"/>
-      <c r="Q115" s="1">
-        <v>6</v>
-      </c>
-      <c r="R115" s="3">
-        <v>0.35580000000000001</v>
-      </c>
-      <c r="S115" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="T115" s="4">
-        <v>0.31140000000000001</v>
-      </c>
-      <c r="U115" s="5">
-        <v>0.90333300000000005</v>
-      </c>
-      <c r="V115" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="W115" s="6">
-        <v>0.89666699999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>7</v>
       </c>
@@ -6240,29 +4014,8 @@
         <v>0.90333300000000005</v>
       </c>
       <c r="J116" s="14"/>
-      <c r="Q116" s="1">
-        <v>7</v>
-      </c>
-      <c r="R116" s="3">
-        <v>0.38369999999999999</v>
-      </c>
-      <c r="S116" s="3">
-        <v>0.37559999999999999</v>
-      </c>
-      <c r="T116" s="3">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="U116" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="V116" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W116" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -6291,29 +4044,8 @@
         <v>0.89666699999999999</v>
       </c>
       <c r="J117" s="14"/>
-      <c r="Q117" s="1">
-        <v>8</v>
-      </c>
-      <c r="R117" s="4">
-        <v>0.33389999999999997</v>
-      </c>
-      <c r="S117" s="3">
-        <v>0.3634</v>
-      </c>
-      <c r="T117" s="3">
-        <v>0.36919999999999997</v>
-      </c>
-      <c r="U117" s="6">
-        <v>0.906667</v>
-      </c>
-      <c r="V117" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="W117" s="5">
-        <v>0.88333300000000003</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>9</v>
       </c>
@@ -6342,29 +4074,8 @@
         <v>0.9</v>
       </c>
       <c r="J118" s="14"/>
-      <c r="Q118" s="1">
-        <v>9</v>
-      </c>
-      <c r="R118" s="3">
-        <v>0.34939999999999999</v>
-      </c>
-      <c r="S118" s="3">
-        <v>0.3654</v>
-      </c>
-      <c r="T118" s="3">
-        <v>0.40160000000000001</v>
-      </c>
-      <c r="U118" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="V118" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="W118" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>10</v>
       </c>
@@ -6389,29 +4100,8 @@
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="12"/>
-      <c r="Q119" s="1">
-        <v>10</v>
-      </c>
-      <c r="R119" s="3">
-        <v>0.41549999999999998</v>
-      </c>
-      <c r="S119" s="3">
-        <v>0.3765</v>
-      </c>
-      <c r="T119" s="3">
-        <v>0.41220000000000001</v>
-      </c>
-      <c r="U119" s="5">
-        <v>0.89333300000000004</v>
-      </c>
-      <c r="V119" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="W119" s="5">
-        <v>0.88666699999999998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>11</v>
       </c>
@@ -6429,7 +4119,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>12</v>
       </c>
@@ -6447,7 +4137,7 @@
       <c r="I121" s="3"/>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>13</v>
       </c>
@@ -6465,7 +4155,7 @@
       <c r="I122" s="3"/>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>14</v>
       </c>
@@ -6483,7 +4173,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>15</v>
       </c>
@@ -6501,7 +4191,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>16</v>
       </c>
@@ -6519,7 +4209,7 @@
       <c r="I125" s="3"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>17</v>
       </c>
@@ -6537,7 +4227,7 @@
       <c r="I126" s="3"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>18</v>
       </c>
@@ -12323,6 +10013,2536 @@
         <v>0.89</v>
       </c>
       <c r="G399" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A401" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A402" s="1">
+        <v>1</v>
+      </c>
+      <c r="B402" s="3">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="C402" s="3">
+        <v>1.2699</v>
+      </c>
+      <c r="D402" s="3">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="E402" s="5">
+        <v>0.69666700000000004</v>
+      </c>
+      <c r="F402" s="5">
+        <v>0.62333300000000003</v>
+      </c>
+      <c r="G402" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A403" s="1">
+        <v>2</v>
+      </c>
+      <c r="B403" s="3">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="C403" s="3">
+        <v>0.69450000000000001</v>
+      </c>
+      <c r="D403" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E403" s="5">
+        <v>0.80666700000000002</v>
+      </c>
+      <c r="F403" s="5">
+        <v>0.77333300000000005</v>
+      </c>
+      <c r="G403" s="5">
+        <v>0.843333</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A404" s="1">
+        <v>3</v>
+      </c>
+      <c r="B404" s="3">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="C404" s="3">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="D404" s="3">
+        <v>0.4521</v>
+      </c>
+      <c r="E404" s="5">
+        <v>0.843333</v>
+      </c>
+      <c r="F404" s="5">
+        <v>0.82666700000000004</v>
+      </c>
+      <c r="G404" s="5">
+        <v>0.843333</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A405" s="1">
+        <v>4</v>
+      </c>
+      <c r="B405" s="3">
+        <v>0.46929999999999999</v>
+      </c>
+      <c r="C405" s="3">
+        <v>0.42820000000000003</v>
+      </c>
+      <c r="D405" s="3">
+        <v>0.43530000000000002</v>
+      </c>
+      <c r="E405" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="F405" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="G405" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A406" s="1">
+        <v>5</v>
+      </c>
+      <c r="B406" s="3">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="C406" s="3">
+        <v>0.37840000000000001</v>
+      </c>
+      <c r="D406" s="4">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="E406" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F406" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="G406" s="6">
+        <v>0.90333300000000005</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A407" s="1">
+        <v>6</v>
+      </c>
+      <c r="B407" s="4">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="C407" s="3">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="D407" s="3">
+        <v>0.3679</v>
+      </c>
+      <c r="E407" s="6">
+        <v>0.90333300000000005</v>
+      </c>
+      <c r="F407" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="G407" s="5">
+        <v>0.87666699999999997</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A408" s="1">
+        <v>7</v>
+      </c>
+      <c r="B408" s="3">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="C408" s="3">
+        <v>0.36320000000000002</v>
+      </c>
+      <c r="D408" s="3">
+        <v>0.4118</v>
+      </c>
+      <c r="E408" s="5">
+        <v>0.86333300000000002</v>
+      </c>
+      <c r="F408" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="G408" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A409" s="1">
+        <v>8</v>
+      </c>
+      <c r="B409" s="3">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="C409" s="4">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="D409" s="3">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E409" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="F409" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G409" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A410" s="1">
+        <v>9</v>
+      </c>
+      <c r="B410" s="3">
+        <v>0.3599</v>
+      </c>
+      <c r="C410" s="3">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="D410" s="3">
+        <v>0.36770000000000003</v>
+      </c>
+      <c r="E410" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="F410" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G410" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A411" s="1">
+        <v>10</v>
+      </c>
+      <c r="B411" s="3">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C411" s="3">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D411" s="3">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="E411" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="F411" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G411" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A413" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A414" s="1">
+        <v>1</v>
+      </c>
+      <c r="B414" s="3">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="C414" s="3">
+        <v>1.2896000000000001</v>
+      </c>
+      <c r="D414" s="3">
+        <v>0.9234</v>
+      </c>
+      <c r="E414" s="5">
+        <v>0.73666699999999996</v>
+      </c>
+      <c r="F414" s="5">
+        <v>0.62333300000000003</v>
+      </c>
+      <c r="G414" s="5">
+        <v>0.71333299999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A415" s="1">
+        <v>2</v>
+      </c>
+      <c r="B415" s="3">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="C415" s="3">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="D415" s="3">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="E415" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F415" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="G415" s="5">
+        <v>0.82333299999999998</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A416" s="1">
+        <v>3</v>
+      </c>
+      <c r="B416" s="3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="C416" s="3">
+        <v>0.49709999999999999</v>
+      </c>
+      <c r="D416" s="3">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="E416" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F416" s="5">
+        <v>0.85333300000000001</v>
+      </c>
+      <c r="G416" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A417" s="1">
+        <v>4</v>
+      </c>
+      <c r="B417" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="C417" s="3">
+        <v>0.41139999999999999</v>
+      </c>
+      <c r="D417" s="3">
+        <v>0.3841</v>
+      </c>
+      <c r="E417" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="F417" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="G417" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A418" s="1">
+        <v>5</v>
+      </c>
+      <c r="B418" s="4">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="C418" s="3">
+        <v>0.36180000000000001</v>
+      </c>
+      <c r="D418" s="3">
+        <v>0.38290000000000002</v>
+      </c>
+      <c r="E418" s="6">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="F418" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G418" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A419" s="1">
+        <v>6</v>
+      </c>
+      <c r="B419" s="3">
+        <v>0.4052</v>
+      </c>
+      <c r="C419" s="3">
+        <v>0.3614</v>
+      </c>
+      <c r="D419" s="3">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="E419" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="F419" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G419" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A420" s="1">
+        <v>7</v>
+      </c>
+      <c r="B420" s="3">
+        <v>0.3604</v>
+      </c>
+      <c r="C420" s="3">
+        <v>0.38080000000000003</v>
+      </c>
+      <c r="D420" s="3">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="E420" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="F420" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="G420" s="5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A421" s="1">
+        <v>8</v>
+      </c>
+      <c r="B421" s="3">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="C421" s="3">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="D421" s="3">
+        <v>0.40060000000000001</v>
+      </c>
+      <c r="E421" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F421" s="5">
+        <v>0.87666699999999997</v>
+      </c>
+      <c r="G421" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A422" s="1">
+        <v>9</v>
+      </c>
+      <c r="B422" s="3">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="C422" s="4">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D422" s="3">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="E422" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F422" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="G422" s="5">
+        <v>0.906667</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A423" s="1">
+        <v>10</v>
+      </c>
+      <c r="B423" s="3">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="C423" s="3">
+        <v>0.3569</v>
+      </c>
+      <c r="D423" s="4">
+        <v>0.3538</v>
+      </c>
+      <c r="E423" s="5">
+        <v>0.906667</v>
+      </c>
+      <c r="F423" s="5">
+        <v>0.906667</v>
+      </c>
+      <c r="G423" s="6">
+        <v>0.89666699999999999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A425" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G425" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A426" s="1">
+        <v>1</v>
+      </c>
+      <c r="B426" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="C426" s="3">
+        <v>1.2884</v>
+      </c>
+      <c r="D426" s="3">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="E426" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="F426" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="G426" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A427" s="1">
+        <v>2</v>
+      </c>
+      <c r="B427" s="3">
+        <v>0.49380000000000002</v>
+      </c>
+      <c r="C427" s="3">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="D427" s="3">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="E427" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="F427" s="5">
+        <v>0.776667</v>
+      </c>
+      <c r="G427" s="5">
+        <v>0.83333299999999999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A428" s="1">
+        <v>3</v>
+      </c>
+      <c r="B428" s="3">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="C428" s="3">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D428" s="3">
+        <v>0.3982</v>
+      </c>
+      <c r="E428" s="5">
+        <v>0.86333300000000002</v>
+      </c>
+      <c r="F428" s="5">
+        <v>0.84666699999999995</v>
+      </c>
+      <c r="G428" s="5">
+        <v>0.86333300000000002</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A429" s="1">
+        <v>4</v>
+      </c>
+      <c r="B429" s="3">
+        <v>0.32629999999999998</v>
+      </c>
+      <c r="C429" s="3">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="D429" s="3">
+        <v>0.41070000000000001</v>
+      </c>
+      <c r="E429" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F429" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="G429" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A430" s="1">
+        <v>5</v>
+      </c>
+      <c r="B430" s="3">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="C430" s="3">
+        <v>0.37830000000000003</v>
+      </c>
+      <c r="D430" s="3">
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="E430" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="F430" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G430" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A431" s="1">
+        <v>6</v>
+      </c>
+      <c r="B431" s="3">
+        <v>0.36130000000000001</v>
+      </c>
+      <c r="C431" s="3">
+        <v>0.36990000000000001</v>
+      </c>
+      <c r="D431" s="3">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="E431" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="F431" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="G431" s="5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A432" s="1">
+        <v>7</v>
+      </c>
+      <c r="B432" s="3">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="C432" s="3">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="D432" s="3">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E432" s="5">
+        <v>0.91333299999999995</v>
+      </c>
+      <c r="F432" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G432" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A433" s="1">
+        <v>8</v>
+      </c>
+      <c r="B433" s="3">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="C433" s="3">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="D433" s="4">
+        <v>0.32529999999999998</v>
+      </c>
+      <c r="E433" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="F433" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="G433" s="6">
+        <v>0.906667</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A434" s="1">
+        <v>9</v>
+      </c>
+      <c r="B434" s="3">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="C434" s="3">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="D434" s="3">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="E434" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="F434" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="G434" s="5">
+        <v>0.906667</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A435" s="1">
+        <v>10</v>
+      </c>
+      <c r="B435" s="4">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="C435" s="4">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="D435" s="3">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="E435" s="6">
+        <v>0.91333299999999995</v>
+      </c>
+      <c r="F435" s="6">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="G435" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A437" s="1">
+        <v>24</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G437" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A438" s="1">
+        <v>1</v>
+      </c>
+      <c r="B438" s="3">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="C438" s="3">
+        <v>1.2663</v>
+      </c>
+      <c r="D438" s="3">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="E438" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="F438" s="5">
+        <v>0.62666699999999997</v>
+      </c>
+      <c r="G438" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A439" s="1">
+        <v>2</v>
+      </c>
+      <c r="B439" s="3">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="C439" s="3">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="D439" s="3">
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="E439" s="5">
+        <v>0.85666699999999996</v>
+      </c>
+      <c r="F439" s="5">
+        <v>0.79666700000000001</v>
+      </c>
+      <c r="G439" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A440" s="1">
+        <v>3</v>
+      </c>
+      <c r="B440" s="3">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="C440" s="3">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="D440" s="3">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="E440" s="5">
+        <v>0.87666699999999997</v>
+      </c>
+      <c r="F440" s="5">
+        <v>0.82666700000000004</v>
+      </c>
+      <c r="G440" s="5">
+        <v>0.85666699999999996</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A441" s="1">
+        <v>4</v>
+      </c>
+      <c r="B441" s="3">
+        <v>0.4284</v>
+      </c>
+      <c r="C441" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+      <c r="D441" s="3">
+        <v>0.33860000000000001</v>
+      </c>
+      <c r="E441" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="F441" s="5">
+        <v>0.87333300000000003</v>
+      </c>
+      <c r="G441" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A442" s="1">
+        <v>5</v>
+      </c>
+      <c r="B442" s="3">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="C442" s="3">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="D442" s="3">
+        <v>0.3448</v>
+      </c>
+      <c r="E442" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="F442" s="5">
+        <v>0.87333300000000003</v>
+      </c>
+      <c r="G442" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A443" s="1">
+        <v>6</v>
+      </c>
+      <c r="B443" s="3">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="C443" s="3">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="D443" s="3">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="E443" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="F443" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G443" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A444" s="1">
+        <v>7</v>
+      </c>
+      <c r="B444" s="3">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="C444" s="4">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="D444" s="3">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="E444" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="F444" s="6">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="G444" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A445" s="1">
+        <v>8</v>
+      </c>
+      <c r="B445" s="4">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="C445" s="3">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="D445" s="4">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="E445" s="6">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F445" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="G445" s="6">
+        <v>0.89333300000000004</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A446" s="1">
+        <v>9</v>
+      </c>
+      <c r="B446" s="3">
+        <v>0.374</v>
+      </c>
+      <c r="C446" s="3">
+        <v>0.33689999999999998</v>
+      </c>
+      <c r="D446" s="3">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="E446" s="5">
+        <v>0.90333300000000005</v>
+      </c>
+      <c r="F446" s="5">
+        <v>0.906667</v>
+      </c>
+      <c r="G446" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A447" s="1">
+        <v>10</v>
+      </c>
+      <c r="B447" s="3">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="C447" s="3">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D447" s="3">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E447" s="5">
+        <v>0.91333299999999995</v>
+      </c>
+      <c r="F447" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="G447" s="5">
+        <v>0.906667</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A449" s="1">
+        <v>25</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A450" s="1">
+        <v>1</v>
+      </c>
+      <c r="B450" s="3">
+        <v>0.7641</v>
+      </c>
+      <c r="C450" s="3">
+        <v>1.2895000000000001</v>
+      </c>
+      <c r="D450" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="E450" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="F450" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="G450" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A451" s="1">
+        <v>2</v>
+      </c>
+      <c r="B451" s="3">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="C451" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D451" s="3">
+        <v>0.49030000000000001</v>
+      </c>
+      <c r="E451" s="5">
+        <v>0.75333300000000003</v>
+      </c>
+      <c r="F451" s="5">
+        <v>0.79666700000000001</v>
+      </c>
+      <c r="G451" s="5">
+        <v>0.83666700000000005</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A452" s="1">
+        <v>3</v>
+      </c>
+      <c r="B452" s="3">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="C452" s="3">
+        <v>0.46929999999999999</v>
+      </c>
+      <c r="D452" s="3">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="E452" s="5">
+        <v>0.84666699999999995</v>
+      </c>
+      <c r="F452" s="5">
+        <v>0.85666699999999996</v>
+      </c>
+      <c r="G452" s="5">
+        <v>0.85666699999999996</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A453" s="1">
+        <v>4</v>
+      </c>
+      <c r="B453" s="3">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="C453" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D453" s="3">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="E453" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="F453" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="G453" s="5">
+        <v>0.87666699999999997</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A454" s="1">
+        <v>5</v>
+      </c>
+      <c r="B454" s="3">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="C454" s="3">
+        <v>0.35959999999999998</v>
+      </c>
+      <c r="D454" s="3">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="E454" s="5">
+        <v>0.84666699999999995</v>
+      </c>
+      <c r="F454" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="G454" s="5">
+        <v>0.87666699999999997</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A455" s="1">
+        <v>6</v>
+      </c>
+      <c r="B455" s="3">
+        <v>0.3614</v>
+      </c>
+      <c r="C455" s="3">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="D455" s="4">
+        <v>0.3034</v>
+      </c>
+      <c r="E455" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="F455" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G455" s="6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A456" s="1">
+        <v>7</v>
+      </c>
+      <c r="B456" s="3">
+        <v>0.34989999999999999</v>
+      </c>
+      <c r="C456" s="3">
+        <v>0.3397</v>
+      </c>
+      <c r="D456" s="3">
+        <v>0.2984</v>
+      </c>
+      <c r="E456" s="5">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F456" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="G456" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A457" s="1">
+        <v>8</v>
+      </c>
+      <c r="B457" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="C457" s="3">
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="D457" s="3">
+        <v>0.32629999999999998</v>
+      </c>
+      <c r="E457" s="5">
+        <v>0.906667</v>
+      </c>
+      <c r="F457" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="G457" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A458" s="1">
+        <v>9</v>
+      </c>
+      <c r="B458" s="3">
+        <v>0.3402</v>
+      </c>
+      <c r="C458" s="4">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D458" s="3">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="E458" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="F458" s="6">
+        <v>0.91333299999999995</v>
+      </c>
+      <c r="G458" s="5">
+        <v>0.90333300000000005</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A459" s="1">
+        <v>10</v>
+      </c>
+      <c r="B459" s="4">
+        <v>0.32090000000000002</v>
+      </c>
+      <c r="C459" s="3">
+        <v>0.34770000000000001</v>
+      </c>
+      <c r="D459" s="3">
+        <v>0.3604</v>
+      </c>
+      <c r="E459" s="6">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F459" s="5">
+        <v>0.906667</v>
+      </c>
+      <c r="G459" s="5">
+        <v>0.90333300000000005</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A461" s="1">
+        <v>26</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A462" s="1">
+        <v>1</v>
+      </c>
+      <c r="B462" s="3">
+        <v>0.8024</v>
+      </c>
+      <c r="C462" s="3">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="D462" s="3">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="E462" s="5">
+        <v>0.71666700000000005</v>
+      </c>
+      <c r="F462" s="5">
+        <v>0.68333299999999997</v>
+      </c>
+      <c r="G462" s="5">
+        <v>0.723333</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A463" s="1">
+        <v>2</v>
+      </c>
+      <c r="B463" s="3">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="C463" s="3">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="D463" s="3">
+        <v>0.52959999999999996</v>
+      </c>
+      <c r="E463" s="5">
+        <v>0.81666700000000003</v>
+      </c>
+      <c r="F463" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="G463" s="5">
+        <v>0.843333</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A464" s="1">
+        <v>3</v>
+      </c>
+      <c r="B464" s="3">
+        <v>0.47970000000000002</v>
+      </c>
+      <c r="C464" s="3">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="D464" s="3">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="E464" s="5">
+        <v>0.84666699999999995</v>
+      </c>
+      <c r="F464" s="5">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="G464" s="5">
+        <v>0.85666699999999996</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A465" s="1">
+        <v>4</v>
+      </c>
+      <c r="B465" s="3">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="C465" s="3">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D465" s="3">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="E465" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="F465" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="G465" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A466" s="1">
+        <v>5</v>
+      </c>
+      <c r="B466" s="3">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="C466" s="3">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="D466" s="3">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="E466" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="F466" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G466" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A467" s="1">
+        <v>6</v>
+      </c>
+      <c r="B467" s="3">
+        <v>0.39410000000000001</v>
+      </c>
+      <c r="C467" s="3">
+        <v>0.3569</v>
+      </c>
+      <c r="D467" s="3">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="E467" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="F467" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G467" s="5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A468" s="1">
+        <v>7</v>
+      </c>
+      <c r="B468" s="4">
+        <v>0.33939999999999998</v>
+      </c>
+      <c r="C468" s="3">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="D468" s="3">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="E468" s="6">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F468" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G468" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A469" s="1">
+        <v>8</v>
+      </c>
+      <c r="B469" s="3">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="C469" s="4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D469" s="4">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="E469" s="5">
+        <v>0.906667</v>
+      </c>
+      <c r="F469" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="G469" s="6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A470" s="1">
+        <v>9</v>
+      </c>
+      <c r="B470" s="3">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="C470" s="3">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="D470" s="3">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="E470" s="5">
+        <v>0.906667</v>
+      </c>
+      <c r="F470" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="G470" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A471" s="1">
+        <v>10</v>
+      </c>
+      <c r="B471" s="3">
+        <v>0.3397</v>
+      </c>
+      <c r="C471" s="3">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="D471" s="3">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="E471" s="5">
+        <v>0.906667</v>
+      </c>
+      <c r="F471" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G471" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A473" s="1">
+        <v>27</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A474" s="1">
+        <v>1</v>
+      </c>
+      <c r="B474" s="3">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="C474" s="3">
+        <v>1.2741</v>
+      </c>
+      <c r="D474" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E474" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F474" s="5">
+        <v>0.65333300000000005</v>
+      </c>
+      <c r="G474" s="5">
+        <v>0.73666699999999996</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A475" s="1">
+        <v>2</v>
+      </c>
+      <c r="B475" s="3">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="C475" s="3">
+        <v>0.69710000000000005</v>
+      </c>
+      <c r="D475" s="3">
+        <v>0.51939999999999997</v>
+      </c>
+      <c r="E475" s="5">
+        <v>0.81333299999999997</v>
+      </c>
+      <c r="F475" s="5">
+        <v>0.79666700000000001</v>
+      </c>
+      <c r="G475" s="5">
+        <v>0.82333299999999998</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A476" s="1">
+        <v>3</v>
+      </c>
+      <c r="B476" s="3">
+        <v>0.4007</v>
+      </c>
+      <c r="C476" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D476" s="3">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="E476" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="F476" s="5">
+        <v>0.80333299999999996</v>
+      </c>
+      <c r="G476" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A477" s="1">
+        <v>4</v>
+      </c>
+      <c r="B477" s="3">
+        <v>0.4108</v>
+      </c>
+      <c r="C477" s="3">
+        <v>0.42280000000000001</v>
+      </c>
+      <c r="D477" s="3">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="E477" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="F477" s="5">
+        <v>0.86333300000000002</v>
+      </c>
+      <c r="G477" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A478" s="1">
+        <v>5</v>
+      </c>
+      <c r="B478" s="3">
+        <v>0.36159999999999998</v>
+      </c>
+      <c r="C478" s="3">
+        <v>0.36930000000000002</v>
+      </c>
+      <c r="D478" s="3">
+        <v>0.37469999999999998</v>
+      </c>
+      <c r="E478" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F478" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="G478" s="5">
+        <v>0.86333300000000002</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A479" s="1">
+        <v>6</v>
+      </c>
+      <c r="B479" s="3">
+        <v>0.3901</v>
+      </c>
+      <c r="C479" s="3">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D479" s="3">
+        <v>0.33189999999999997</v>
+      </c>
+      <c r="E479" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F479" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="G479" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A480" s="1">
+        <v>7</v>
+      </c>
+      <c r="B480" s="3">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="C480" s="3">
+        <v>0.3619</v>
+      </c>
+      <c r="D480" s="3">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E480" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="F480" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="G480" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A481" s="1">
+        <v>8</v>
+      </c>
+      <c r="B481" s="3">
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="C481" s="3">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="D481" s="3">
+        <v>0.33379999999999999</v>
+      </c>
+      <c r="E481" s="5">
+        <v>0.90333300000000005</v>
+      </c>
+      <c r="F481" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="G481" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A482" s="1">
+        <v>9</v>
+      </c>
+      <c r="B482" s="3">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="C482" s="4">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="D482" s="3">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E482" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="F482" s="6">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="G482" s="5">
+        <v>0.90333300000000005</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A483" s="1">
+        <v>10</v>
+      </c>
+      <c r="B483" s="4">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="C483" s="3">
+        <v>0.3538</v>
+      </c>
+      <c r="D483" s="4">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="E483" s="6">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F483" s="5">
+        <v>0.906667</v>
+      </c>
+      <c r="G483" s="6">
+        <v>0.92333299999999996</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A485" s="1">
+        <v>28</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G485" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A486" s="1">
+        <v>1</v>
+      </c>
+      <c r="B486" s="19">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="C486" s="3">
+        <v>1.2383999999999999</v>
+      </c>
+      <c r="D486" s="3">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="E486" s="20">
+        <v>0.71333299999999999</v>
+      </c>
+      <c r="F486" s="5">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G486" s="5">
+        <v>0.72666699999999995</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A487" s="1">
+        <v>2</v>
+      </c>
+      <c r="B487" s="19">
+        <v>0.56710000000000005</v>
+      </c>
+      <c r="C487" s="3">
+        <v>0.72130000000000005</v>
+      </c>
+      <c r="D487" s="3">
+        <v>0.50870000000000004</v>
+      </c>
+      <c r="E487" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F487" s="5">
+        <v>0.77333300000000005</v>
+      </c>
+      <c r="G487" s="5">
+        <v>0.82666700000000004</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A488" s="1">
+        <v>3</v>
+      </c>
+      <c r="B488" s="19">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="C488" s="3">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="D488" s="3">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="E488" s="20">
+        <v>0.86</v>
+      </c>
+      <c r="F488" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="G488" s="5">
+        <v>0.86333300000000002</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A489" s="1">
+        <v>4</v>
+      </c>
+      <c r="B489" s="19">
+        <v>0.3493</v>
+      </c>
+      <c r="C489" s="3">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D489" s="3">
+        <v>0.36780000000000002</v>
+      </c>
+      <c r="E489" s="20">
+        <v>0.88</v>
+      </c>
+      <c r="F489" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="G489" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A490" s="1">
+        <v>5</v>
+      </c>
+      <c r="B490" s="19">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="C490" s="3">
+        <v>0.39140000000000003</v>
+      </c>
+      <c r="D490" s="3">
+        <v>0.37430000000000002</v>
+      </c>
+      <c r="E490" s="20">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="F490" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="G490" s="5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A491" s="1">
+        <v>6</v>
+      </c>
+      <c r="B491" s="19">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="C491" s="3">
+        <v>0.3634</v>
+      </c>
+      <c r="D491" s="3">
+        <v>0.38169999999999998</v>
+      </c>
+      <c r="E491" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="F491" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G491" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A492" s="1">
+        <v>7</v>
+      </c>
+      <c r="B492" s="19">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="C492" s="3">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="D492" s="3">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="E492" s="20">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="F492" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G492" s="5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A493" s="1">
+        <v>8</v>
+      </c>
+      <c r="B493" s="18">
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="C493" s="3">
+        <v>0.3629</v>
+      </c>
+      <c r="D493" s="3">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="E493" s="21">
+        <v>0.906667</v>
+      </c>
+      <c r="F493" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="G493" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A494" s="1">
+        <v>9</v>
+      </c>
+      <c r="B494" s="19">
+        <v>0.3483</v>
+      </c>
+      <c r="C494" s="4">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="D494" s="4">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="E494" s="20">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F494" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="G494" s="6">
+        <v>0.906667</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A495" s="1">
+        <v>10</v>
+      </c>
+      <c r="B495" s="19">
+        <v>0.31719999999999998</v>
+      </c>
+      <c r="C495" s="3">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="D495" s="3">
+        <v>0.37259999999999999</v>
+      </c>
+      <c r="E495" s="20">
+        <v>0.906667</v>
+      </c>
+      <c r="F495" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G495" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A497" s="1">
+        <v>29</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G497" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A498" s="1">
+        <v>1</v>
+      </c>
+      <c r="B498" s="3">
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="C498" s="3">
+        <v>1.2703</v>
+      </c>
+      <c r="D498" s="3">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="E498" s="5">
+        <v>0.74333300000000002</v>
+      </c>
+      <c r="F498" s="5">
+        <v>0.62666699999999997</v>
+      </c>
+      <c r="G498" s="5">
+        <v>0.776667</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A499" s="1">
+        <v>2</v>
+      </c>
+      <c r="B499" s="3">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="C499" s="3">
+        <v>0.6845</v>
+      </c>
+      <c r="D499" s="3">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="E499" s="5">
+        <v>0.81333299999999997</v>
+      </c>
+      <c r="F499" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G499" s="5">
+        <v>0.84666699999999995</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A500" s="1">
+        <v>3</v>
+      </c>
+      <c r="B500" s="3">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="C500" s="3">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="D500" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E500" s="5">
+        <v>0.843333</v>
+      </c>
+      <c r="F500" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="G500" s="5">
+        <v>0.86666699999999997</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A501" s="1">
+        <v>4</v>
+      </c>
+      <c r="B501" s="3">
+        <v>0.39689999999999998</v>
+      </c>
+      <c r="C501" s="3">
+        <v>0.3715</v>
+      </c>
+      <c r="D501" s="3">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="E501" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="F501" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+      <c r="G501" s="5">
+        <v>0.87666699999999997</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A502" s="1">
+        <v>5</v>
+      </c>
+      <c r="B502" s="3">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="C502" s="3">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="D502" s="3">
+        <v>0.371</v>
+      </c>
+      <c r="E502" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F502" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="G502" s="5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A503" s="1">
+        <v>6</v>
+      </c>
+      <c r="B503" s="3">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="C503" s="3">
+        <v>0.3387</v>
+      </c>
+      <c r="D503" s="4">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E503" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="F503" s="5">
+        <v>0.90333300000000005</v>
+      </c>
+      <c r="G503" s="6">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A504" s="1">
+        <v>7</v>
+      </c>
+      <c r="B504" s="3">
+        <v>0.36759999999999998</v>
+      </c>
+      <c r="C504" s="4">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="D504" s="3">
+        <v>0.38940000000000002</v>
+      </c>
+      <c r="E504" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F504" s="6">
+        <v>0.906667</v>
+      </c>
+      <c r="G504" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A505" s="1">
+        <v>8</v>
+      </c>
+      <c r="B505" s="3">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="C505" s="3">
+        <v>0.3417</v>
+      </c>
+      <c r="D505" s="3">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="E505" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+      <c r="F505" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G505" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A506" s="1">
+        <v>9</v>
+      </c>
+      <c r="B506" s="4">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="C506" s="3">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D506" s="3">
+        <v>0.40189999999999998</v>
+      </c>
+      <c r="E506" s="6">
+        <v>0.906667</v>
+      </c>
+      <c r="F506" s="5">
+        <v>0.89666699999999999</v>
+      </c>
+      <c r="G506" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A507" s="1">
+        <v>10</v>
+      </c>
+      <c r="B507" s="3">
+        <v>0.4007</v>
+      </c>
+      <c r="C507" s="3">
+        <v>0.34570000000000001</v>
+      </c>
+      <c r="D507" s="3">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="E507" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="F507" s="5">
+        <v>0.90333300000000005</v>
+      </c>
+      <c r="G507" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A509" s="1">
+        <v>30</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G509" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A510" s="1">
+        <v>1</v>
+      </c>
+      <c r="B510" s="3">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="C510" s="3">
+        <v>1.2367999999999999</v>
+      </c>
+      <c r="D510" s="3">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="E510" s="5">
+        <v>0.74666699999999997</v>
+      </c>
+      <c r="F510" s="5">
+        <v>0.656667</v>
+      </c>
+      <c r="G510" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A511" s="1">
+        <v>2</v>
+      </c>
+      <c r="B511" s="3">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="C511" s="3">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D511" s="3">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="E511" s="5">
+        <v>0.79333299999999995</v>
+      </c>
+      <c r="F511" s="5">
+        <v>0.78333299999999995</v>
+      </c>
+      <c r="G511" s="5">
+        <v>0.843333</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A512" s="1">
+        <v>3</v>
+      </c>
+      <c r="B512" s="3">
+        <v>0.40329999999999999</v>
+      </c>
+      <c r="C512" s="3">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="D512" s="3">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="E512" s="5">
+        <v>0.87333300000000003</v>
+      </c>
+      <c r="F512" s="5">
+        <v>0.83666700000000005</v>
+      </c>
+      <c r="G512" s="5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A513" s="1">
+        <v>4</v>
+      </c>
+      <c r="B513" s="3">
+        <v>0.47539999999999999</v>
+      </c>
+      <c r="C513" s="3">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="D513" s="3">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="E513" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="F513" s="5">
+        <v>0.86333300000000002</v>
+      </c>
+      <c r="G513" s="5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A514" s="1">
+        <v>5</v>
+      </c>
+      <c r="B514" s="3">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="C514" s="3">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="D514" s="3">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="E514" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F514" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G514" s="5">
+        <v>0.87666699999999997</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A515" s="1">
+        <v>6</v>
+      </c>
+      <c r="B515" s="3">
+        <v>0.35580000000000001</v>
+      </c>
+      <c r="C515" s="4">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D515" s="4">
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="E515" s="5">
+        <v>0.90333300000000005</v>
+      </c>
+      <c r="F515" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G515" s="6">
+        <v>0.89666699999999999</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A516" s="1">
+        <v>7</v>
+      </c>
+      <c r="B516" s="3">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="C516" s="3">
+        <v>0.37559999999999999</v>
+      </c>
+      <c r="D516" s="3">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E516" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F516" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G516" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A517" s="1">
+        <v>8</v>
+      </c>
+      <c r="B517" s="4">
+        <v>0.33389999999999997</v>
+      </c>
+      <c r="C517" s="3">
+        <v>0.3634</v>
+      </c>
+      <c r="D517" s="3">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="E517" s="6">
+        <v>0.906667</v>
+      </c>
+      <c r="F517" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G517" s="5">
+        <v>0.88333300000000003</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A518" s="1">
+        <v>9</v>
+      </c>
+      <c r="B518" s="3">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="C518" s="3">
+        <v>0.3654</v>
+      </c>
+      <c r="D518" s="3">
+        <v>0.40160000000000001</v>
+      </c>
+      <c r="E518" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F518" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G518" s="5">
+        <v>0.88666699999999998</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A519" s="1">
+        <v>10</v>
+      </c>
+      <c r="B519" s="3">
+        <v>0.41549999999999998</v>
+      </c>
+      <c r="C519" s="3">
+        <v>0.3765</v>
+      </c>
+      <c r="D519" s="3">
+        <v>0.41220000000000001</v>
+      </c>
+      <c r="E519" s="5">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F519" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="G519" s="5">
         <v>0.88666699999999998</v>
       </c>
     </row>
